--- a/tea_time_data.xlsx
+++ b/tea_time_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C95646-C8D8-254F-8B43-8BF97FCA33D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD88DB6-14C7-4785-848C-C510BF361287}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1680" windowWidth="23020" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -97,6 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -405,7 +406,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -425,20 +426,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7106</v>
       </c>
       <c r="B3" s="1">
         <v>2.7583333333348201</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.65181920480155298</v>
       </c>
       <c r="D3" s="1">
         <v>2.2440677965723999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>1.11740435106896</v>
       </c>
       <c r="F3" s="1"/>
@@ -446,20 +447,20 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7107</v>
       </c>
       <c r="B4" s="1">
         <v>3.7739316239177798</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.82959135744176704</v>
       </c>
       <c r="D4" s="1">
         <v>1.56111111131228</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0.81831845947604798</v>
       </c>
       <c r="F4" s="1"/>
@@ -467,20 +468,20 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7108</v>
       </c>
       <c r="B5" s="1">
         <v>5.5920833350484198</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1.20098434041308</v>
       </c>
       <c r="D5" s="1">
         <v>1.5694949493133501</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0.69521252788376697</v>
       </c>
       <c r="F5" s="1"/>
@@ -488,20 +489,20 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7109</v>
       </c>
       <c r="B6" s="1">
         <v>4.1473484862929197</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>1.00091416069232</v>
       </c>
       <c r="D6" s="1">
         <v>2.5453648916540099</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>1.1797239236388899</v>
       </c>
       <c r="F6" s="1"/>
@@ -509,20 +510,20 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7110</v>
       </c>
       <c r="B7" s="1">
         <v>4.0269076313807703</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>0.95504333766436</v>
       </c>
       <c r="D7" s="1">
         <v>2.2559999994267899</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>0.64463282200975103</v>
       </c>
       <c r="F7" s="1"/>
@@ -530,20 +531,20 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7112</v>
       </c>
       <c r="B8" s="1">
         <v>5.4821428576022697</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>0.84728610862666198</v>
       </c>
       <c r="D8" s="1">
         <v>2.0244979920217898</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0.92750689974871503</v>
       </c>
       <c r="F8" s="1"/>
@@ -551,20 +552,20 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7115</v>
       </c>
       <c r="B9" s="1">
         <v>2.9783524905158698</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>1.35403239857976</v>
       </c>
       <c r="D9" s="1">
         <v>1.67924528324716</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.46507577083486901</v>
       </c>
       <c r="F9" s="1"/>
@@ -572,20 +573,20 @@
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7118</v>
       </c>
       <c r="B10" s="1">
         <v>3.8822510825066199</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>0.79020177994451402</v>
       </c>
       <c r="D10" s="1">
         <v>1.7053254434780001</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>0.761829235918008</v>
       </c>
       <c r="F10" s="1"/>
@@ -593,20 +594,20 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7120</v>
       </c>
       <c r="B11" s="1">
         <v>4.7020833322284803</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>0.74735099320187803</v>
       </c>
       <c r="D11" s="1">
         <v>2.2289405690300099</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>0.95209713047970601</v>
       </c>
       <c r="F11" s="1"/>
@@ -614,20 +615,20 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7121</v>
       </c>
       <c r="B12" s="1">
         <v>4.5770370356547403</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>1.24163568735736</v>
       </c>
       <c r="D12" s="1">
         <v>1.6947126432959201</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.74068120148068295</v>
       </c>
       <c r="F12" s="1"/>
@@ -635,20 +636,20 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7122</v>
       </c>
       <c r="B13" s="1">
         <v>2.20864197454264</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>1.06056713726679</v>
       </c>
       <c r="D13" s="1">
         <v>0.91467661686485802</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>0.36330402132168099</v>
       </c>
       <c r="F13" s="1"/>
@@ -656,20 +657,20 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7123</v>
       </c>
       <c r="B14" s="1">
         <v>4.0929999994206403</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>1.30920140721419</v>
       </c>
       <c r="D14" s="1">
         <v>2.1999999997530599</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>0.91480968110000505</v>
       </c>
       <c r="F14" s="1"/>
@@ -677,20 +678,20 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7126</v>
       </c>
       <c r="B15" s="1">
         <v>2.74845679018541</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>0.80719724439817997</v>
       </c>
       <c r="D15" s="1">
         <v>1.7821305841520301</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>0.47008701956874499</v>
       </c>
       <c r="F15" s="1"/>
@@ -698,20 +699,20 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7127</v>
       </c>
       <c r="B16" s="1">
         <v>3.64429824655645</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>1.3828742618205401</v>
       </c>
       <c r="D16" s="1">
         <v>1.80074487881309</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>0.80469335102157902</v>
       </c>
       <c r="F16" s="1"/>
@@ -719,20 +720,20 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7128</v>
       </c>
       <c r="B17" s="1">
         <v>3.14444444425382</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>1.2060882799877699</v>
       </c>
       <c r="D17" s="1">
         <v>2.2322916666860699</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>1.30471841705853</v>
       </c>
       <c r="F17" s="1"/>
@@ -740,20 +741,20 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7129</v>
       </c>
       <c r="B18" s="1">
         <v>6.9773333337648102</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>1.4059645352830701</v>
       </c>
       <c r="D18" s="1">
         <v>2.3838827838553001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>0.58284076660621198</v>
       </c>
       <c r="F18" s="1"/>
@@ -761,25 +762,45 @@
         <v>649</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7131</v>
       </c>
       <c r="B19" s="1">
         <v>4.2899999993636699</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>0.59972040997628195</v>
       </c>
       <c r="D19" s="1">
         <v>2.4785310737717601</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>1.02213420330289</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19">
         <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>7150</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.1034999999999999</v>
+      </c>
+      <c r="G20">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
